--- a/cellstyle.xlsx
+++ b/cellstyle.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>test of merging</t>
   </si>
@@ -24,6 +24,18 @@
   </si>
   <si>
     <t>Bottom Right</t>
+  </si>
+  <si>
+    <t>Contents are Justified in Alignment</t>
+  </si>
+  <si>
+    <t>BORDER</t>
+  </si>
+  <si>
+    <t>FILL BACKGROUNG/FILL PATTERN</t>
+  </si>
+  <si>
+    <t>FILL FOREGROUND/FILL PATTERN</t>
   </si>
 </sst>
 </file>
@@ -40,15 +52,35 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125">
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -56,11 +88,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color indexed="12"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double"/>
+      <bottom style="thick">
+        <color indexed="12"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="17"/>
+      </left>
+      <bottom style="thick">
+        <color indexed="12"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="17"/>
+      </left>
+      <right style="hair"/>
+      <bottom style="thick">
+        <color indexed="12"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="17"/>
+      </left>
+      <right style="hair">
+        <color indexed="10"/>
+      </right>
+      <bottom style="thick">
+        <color indexed="12"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="17"/>
+      </left>
+      <right style="hair">
+        <color indexed="10"/>
+      </right>
+      <top style="dashDot"/>
+      <bottom style="thick">
+        <color indexed="12"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="17"/>
+      </left>
+      <right style="hair">
+        <color indexed="10"/>
+      </right>
+      <top style="dashDot">
+        <color indexed="29"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="12"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
@@ -70,6 +170,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="fill"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -84,6 +194,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="31.25" customWidth="true"/>
+    <col min="2" max="2" width="31.25" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="40.0" customHeight="true">
@@ -104,6 +215,26 @@
     <row r="8" ht="40.0" customHeight="true">
       <c r="C8" t="s" s="3">
         <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" t="s" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" ht="40.0" customHeight="true">
+      <c r="B11" t="s" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s" s="7">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
